--- a/exports/statistics/analysis_cortisol_features_ideal_bedtime.xlsx
+++ b/exports/statistics/analysis_cortisol_features_ideal_bedtime.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>parameter</t>
   </si>
@@ -35,6 +35,9 @@
     <t>between</t>
   </si>
   <si>
+    <t>padjust</t>
+  </si>
+  <si>
     <t>biomarker</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>cortisol</t>
   </si>
   <si>
+    <t>fdr_bh</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -62,13 +68,16 @@
     <t>cini</t>
   </si>
   <si>
+    <t>cmax</t>
+  </si>
+  <si>
     <t>max_inc</t>
   </si>
   <si>
-    <t>slope03</t>
-  </si>
-  <si>
-    <t>slope04</t>
+    <t>slopeS0S3</t>
+  </si>
+  <si>
+    <t>slopeS0S4</t>
   </si>
   <si>
     <t>Test for Normal Distribution</t>
@@ -490,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -514,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -522,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -530,7 +539,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -540,240 +557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.976</v>
-      </c>
-      <c r="D3">
-        <v>0.013</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.945</v>
-      </c>
-      <c r="D4">
-        <v>0.387</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0.973</v>
-      </c>
-      <c r="D5">
-        <v>0.007</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.949</v>
-      </c>
-      <c r="D6">
-        <v>0.437</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.909</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0.949</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.9</v>
-      </c>
-      <c r="D10">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0.965</v>
-      </c>
-      <c r="D11">
-        <v>0.001</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0.904</v>
-      </c>
-      <c r="D12">
-        <v>0.079</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0.945</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.916</v>
-      </c>
-      <c r="D14">
-        <v>0.124</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,48 +570,46 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.258</v>
+        <v>0.986</v>
       </c>
       <c r="D3">
-        <v>0.023</v>
+        <v>0.226</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.496</v>
+        <v>0.949</v>
       </c>
       <c r="D4">
-        <v>0.483</v>
+        <v>0.539</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -835,33 +617,31 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.804</v>
+        <v>0.992</v>
       </c>
       <c r="D5">
-        <v>0.371</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.007</v>
+        <v>0.902</v>
       </c>
       <c r="D6">
-        <v>0.9350000000000001</v>
+        <v>0.119</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -871,14 +651,284 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.958</v>
+      </c>
+      <c r="D7">
+        <v>0.001</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.396</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.975</v>
+      </c>
+      <c r="D9">
+        <v>0.019</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.328</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.972</v>
+      </c>
+      <c r="D11">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.871</v>
+      </c>
+      <c r="D12">
+        <v>0.043</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.971</v>
+      </c>
+      <c r="D13">
+        <v>0.008</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.88</v>
+      </c>
+      <c r="D14">
+        <v>0.058</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.96</v>
+      </c>
+      <c r="D15">
+        <v>0.001</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.871</v>
+      </c>
+      <c r="D16">
+        <v>0.043</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>4.165</v>
+      </c>
+      <c r="D3">
+        <v>0.043</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>1.705</v>
+      </c>
+      <c r="D4">
+        <v>0.194</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1.568</v>
+      </c>
+      <c r="D5">
+        <v>0.213</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>3.903</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>0.206</v>
+        <v>1.09</v>
       </c>
       <c r="D7">
-        <v>0.651</v>
+        <v>0.298</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -886,18 +936,35 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0.545</v>
+      </c>
+      <c r="D8">
+        <v>0.462</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>0.023</v>
-      </c>
-      <c r="D8">
-        <v>0.879</v>
-      </c>
-      <c r="E8" t="b">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0.345</v>
+      </c>
+      <c r="D9">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -908,7 +975,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -916,187 +983,213 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>17.768</v>
+        <v>14.432</v>
       </c>
       <c r="F3">
-        <v>0.064</v>
+        <v>0.604</v>
       </c>
       <c r="G3">
-        <v>0.803</v>
+        <v>0.45</v>
       </c>
       <c r="H3">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>19.106</v>
+        <v>15.212</v>
       </c>
       <c r="F4">
-        <v>0.789</v>
+        <v>0.001</v>
       </c>
       <c r="G4">
-        <v>0.385</v>
+        <v>0.971</v>
       </c>
       <c r="H4">
-        <v>0.006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>17.039</v>
+        <v>20.244</v>
       </c>
       <c r="F5">
-        <v>0.108</v>
+        <v>2.838</v>
       </c>
       <c r="G5">
-        <v>0.746</v>
+        <v>0.107</v>
       </c>
       <c r="H5">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>21.887</v>
+        <v>14.612</v>
       </c>
       <c r="F6">
-        <v>1.178</v>
+        <v>1.007</v>
       </c>
       <c r="G6">
-        <v>0.29</v>
+        <v>0.332</v>
       </c>
       <c r="H6">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>18.87</v>
+        <v>15.609</v>
       </c>
       <c r="F7">
-        <v>1.077</v>
+        <v>0.21</v>
       </c>
       <c r="G7">
-        <v>0.312</v>
+        <v>0.653</v>
       </c>
       <c r="H7">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>19.589</v>
+        <v>15.619</v>
       </c>
       <c r="F8">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.625</v>
+        <v>0.986</v>
       </c>
       <c r="H8">
-        <v>0.002</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>15.443</v>
+      </c>
+      <c r="F9">
+        <v>0.158</v>
+      </c>
+      <c r="G9">
+        <v>0.697</v>
+      </c>
+      <c r="H9">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,45 +1207,45 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1164,30 +1257,30 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>733.978</v>
+        <v>700.828</v>
       </c>
       <c r="F3">
-        <v>706.314</v>
+        <v>621.028</v>
       </c>
       <c r="G3">
-        <v>27.664</v>
+        <v>79.8</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>77.37</v>
       </c>
       <c r="I3">
-        <v>0.346</v>
+        <v>1.031</v>
       </c>
       <c r="J3">
-        <v>0.74</v>
+        <v>0.304</v>
       </c>
       <c r="K3">
-        <v>0.08799999999999999</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1199,30 +1292,30 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>284.734</v>
+        <v>268.854</v>
       </c>
       <c r="F4">
-        <v>201.706</v>
+        <v>265.711</v>
       </c>
       <c r="G4">
-        <v>83.02800000000001</v>
+        <v>3.144</v>
       </c>
       <c r="H4">
-        <v>84.676</v>
+        <v>76.59099999999999</v>
       </c>
       <c r="I4">
-        <v>0.981</v>
+        <v>0.041</v>
       </c>
       <c r="J4">
-        <v>0.328</v>
+        <v>0.9</v>
       </c>
       <c r="K4">
-        <v>0.25</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1234,30 +1327,30 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>7.318</v>
+        <v>7.033</v>
       </c>
       <c r="F5">
-        <v>7.97</v>
+        <v>5.821</v>
       </c>
       <c r="G5">
-        <v>-0.653</v>
+        <v>1.212</v>
       </c>
       <c r="H5">
-        <v>1.208</v>
+        <v>1.001</v>
       </c>
       <c r="I5">
-        <v>-0.54</v>
+        <v>1.211</v>
       </c>
       <c r="J5">
-        <v>0.599</v>
+        <v>0.228</v>
       </c>
       <c r="K5">
-        <v>-0.138</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1269,30 +1362,30 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>8.629</v>
+        <v>15.45</v>
       </c>
       <c r="F6">
-        <v>6.705</v>
+        <v>13.176</v>
       </c>
       <c r="G6">
-        <v>1.923</v>
+        <v>2.273</v>
       </c>
       <c r="H6">
-        <v>2.042</v>
+        <v>1.786</v>
       </c>
       <c r="I6">
-        <v>0.9419999999999999</v>
+        <v>1.273</v>
       </c>
       <c r="J6">
-        <v>0.348</v>
+        <v>0.205</v>
       </c>
       <c r="K6">
-        <v>0.241</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1304,30 +1397,30 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.136</v>
+        <v>8.201000000000001</v>
       </c>
       <c r="F7">
-        <v>0.082</v>
+        <v>7.286</v>
       </c>
       <c r="G7">
-        <v>0.054</v>
+        <v>0.915</v>
       </c>
       <c r="H7">
-        <v>0.046</v>
+        <v>1.895</v>
       </c>
       <c r="I7">
-        <v>1.18</v>
+        <v>0.483</v>
       </c>
       <c r="J7">
-        <v>0.24</v>
+        <v>0.641</v>
       </c>
       <c r="K7">
-        <v>0.301</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1339,25 +1432,60 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.073</v>
+        <v>0.128</v>
       </c>
       <c r="F8">
-        <v>0.056</v>
+        <v>0.127</v>
       </c>
       <c r="G8">
-        <v>0.018</v>
+        <v>0.001</v>
       </c>
       <c r="H8">
-        <v>0.034</v>
+        <v>0.044</v>
       </c>
       <c r="I8">
-        <v>0.519</v>
+        <v>0.019</v>
       </c>
       <c r="J8">
-        <v>0.614</v>
+        <v>0.9</v>
       </c>
       <c r="K8">
-        <v>0.132</v>
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="G9">
+        <v>-0.014</v>
+      </c>
+      <c r="H9">
+        <v>0.033</v>
+      </c>
+      <c r="I9">
+        <v>-0.429</v>
+      </c>
+      <c r="J9">
+        <v>0.68</v>
+      </c>
+      <c r="K9">
+        <v>-0.12</v>
       </c>
     </row>
   </sheetData>
